--- a/Logical q.xlsx
+++ b/Logical q.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\timepass projects\logical reasoning bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04719900-E5CB-4ECE-94AA-887D444A8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6EE65B-ADF8-4E9B-8450-DDD8D4404DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9CB6E40-E1C5-412A-ADE3-F5E33D6C971B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9CB6E40-E1C5-412A-ADE3-F5E33D6C971B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
